--- a/medicine/Psychotrope/Café_chrétien/Café_chrétien.xlsx
+++ b/medicine/Psychotrope/Café_chrétien/Café_chrétien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_chr%C3%A9tien</t>
+          <t>Café_chrétien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">.
 Un café chrétien est un établissement qui vise à aider les nécessiteux et à évangéliser la population. Comme un café traditionnel, il propose des repas et des boissons, mais sans but lucratif. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_chr%C3%A9tien</t>
+          <t>Café_chrétien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier café chrétien est fondé à Montréal en 1976 par Martine Tardif, dans l'idée de donner un local à un mouvement de jeunes catholiques. Avec le succès de l’initiative, de nombreux établissements similaires apparaissent au Québec ; on en comptait vingt-et-un en 1978. En France, le premier café chrétien est créé en 1986 au Plessis-Robinson. Depuis, d'autres ont vu le jour comme le Simone à Lyon, le Comptoir de Cana à Lille, et le Dorothy à Paris.   
 Les cafés chrétiens sont le plus souvent dirigés par des associations liées à l’Église catholique ; une de leurs vocations est d'évangéliser des populations qui ne sont plus en contact avec elle. Les boissons alcoolisées y sont généralement prohibées ou limitées. L’activité caritative consiste à nouer des liens sociaux avec des individus en solitude ou en détresse psychologique, tout en accueillant également une clientèle ordinaire
